--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,28 @@
   </si>
   <si>
     <t>26,27,28,29,30,31,32,33,64,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>131,132,133,134,135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +495,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,6 +529,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,9 +1105,10 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="10" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1096,8 +1133,14 @@
       <c r="H1" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1117,7 +1160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1137,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1157,7 +1200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1177,7 +1220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1197,7 +1240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1219,7 +1262,7 @@
       <c r="G7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1241,7 +1284,7 @@
       <c r="G8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1264,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1287,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1310,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1333,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1354,6 +1397,146 @@
       </c>
       <c r="H13" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="15">
+        <v>200</v>
+      </c>
+      <c r="E14" s="15">
+        <v>300</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17">
+        <v>1618272000</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="15">
+        <v>200</v>
+      </c>
+      <c r="E15" s="15">
+        <v>300</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17">
+        <v>1618272000</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="15">
+        <v>200</v>
+      </c>
+      <c r="E16" s="15">
+        <v>300</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17">
+        <v>1618272000</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="15">
+        <v>200</v>
+      </c>
+      <c r="E17" s="15">
+        <v>300</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17">
+        <v>1618272000</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="17">
+        <v>1618272000</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1618847999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,96,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,6 +1546,28 @@
       <c r="J18" s="17">
         <v>1618847999</v>
       </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,14 +366,6 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,96,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,10 +1421,10 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="17">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J14" s="17">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1457,10 +1449,10 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="17">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J15" s="17">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1485,10 +1477,10 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="17">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J16" s="17">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1513,10 +1505,10 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="17">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J17" s="17">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1541,33 +1533,11 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="17">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J18" s="17">
-        <v>1618847999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4000</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+        <v>1620662399</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -245,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,6 +282,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,39 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -348,57 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +354,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,6 +399,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -462,43 +448,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,139 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,8 +660,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +692,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,44 +722,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,157 +745,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -944,14 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1538,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1560,8 +1546,7 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="51.75" customWidth="1"/>
     <col min="6" max="6" width="64.375" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="7" max="8" width="41.25" customWidth="1"/>
     <col min="9" max="10" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1874,10 +1859,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J14" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1902,10 +1887,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J15" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1930,10 +1915,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J16" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1958,10 +1943,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J17" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1986,10 +1971,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -246,9 +246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -272,6 +272,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -287,71 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,14 +377,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,21 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -414,8 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +448,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,31 +514,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,139 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,11 +657,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,30 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,26 +719,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +734,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,138 +773,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection activeCell="I15" sqref="I15:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1859,10 +1859,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J14" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1887,10 +1887,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J15" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1915,10 +1915,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J16" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1943,10 +1943,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J17" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1971,10 +1971,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J18" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -245,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -273,22 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,23 +284,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,8 +299,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -344,8 +351,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +376,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,52 +414,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -448,37 +448,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,145 +610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +653,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +717,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,15 +731,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,14 +757,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,138 +773,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J18"/>
+      <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1859,10 +1859,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J14" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1887,10 +1887,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J15" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1915,10 +1915,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J16" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1943,10 +1943,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J17" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1971,10 +1971,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J18" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>no</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>128,129,130,</t>
+  </si>
+  <si>
+    <t>137,</t>
   </si>
 </sst>
 </file>
@@ -245,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -273,27 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,72 +289,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,6 +311,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -398,9 +347,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,8 +369,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,32 +660,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,34 +709,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +742,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,138 +776,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1535,10 +1538,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1859,10 +1862,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J14" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1887,10 +1890,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J15" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1915,10 +1918,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J16" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1943,10 +1946,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J17" s="5">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1971,10 +1974,38 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1623110400</v>
+        <v>1623167999</v>
       </c>
       <c r="J18" s="5">
-        <v>1623686399</v>
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5">
+        <v>1624320000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -249,14 +249,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,21 +283,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,28 +364,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +387,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -355,15 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,48 +424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,37 +458,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,43 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,85 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,20 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,21 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,20 +714,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +746,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,140 +783,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -920,13 +927,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1275,28 +1285,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1342,10 +1352,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1391,10 +1401,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1448,10 +1458,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1497,10 +1507,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1540,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1862,10 +1872,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J14" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1890,10 +1900,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J15" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1918,10 +1928,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J16" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1946,10 +1956,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J17" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1974,10 +1984,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1623167999</v>
+        <v>1624924800</v>
       </c>
       <c r="J18" s="5">
-        <v>1623254399</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2001,11 +2011,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="5">
-        <v>1624320000</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1624895999</v>
+      <c r="I19" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>
@@ -2026,206 +2036,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="13.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>15</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12">
+      <c r="F2" s="15"/>
+      <c r="G2" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <v>1200</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12">
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>2555555555</v>
       </c>
     </row>
@@ -2247,14 +2257,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2286,17 +2296,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2430,112 +2440,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="7"/>
-    <col min="2" max="2" width="21.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="7"/>
+    <col min="1" max="1" width="10.75" style="8"/>
+    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2549,37 +2559,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2650,17 +2660,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2808,62 +2818,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="7"/>
+    <col min="1" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>30</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>40</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>25</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>30</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2885,10 +2895,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2950,10 +2960,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t>no</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>137,</t>
+  </si>
+  <si>
+    <t>鱼粮boss</t>
+  </si>
+  <si>
+    <t>138,</t>
   </si>
 </sst>
 </file>
@@ -248,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -283,6 +289,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -290,7 +308,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,15 +338,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,30 +369,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,52 +409,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,49 +464,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,133 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +669,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +718,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,50 +770,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,19 +789,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,117 +810,117 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1548,10 +1554,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1872,10 +1878,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J14" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1900,10 +1906,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J15" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1928,10 +1934,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J16" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1956,10 +1962,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J17" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1984,10 +1990,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J18" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2015,6 +2021,32 @@
         <v>1623167999</v>
       </c>
       <c r="J19" s="6">
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="J20" s="6">
         <v>1623254399</v>
       </c>
     </row>

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -252,14 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +269,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -289,9 +295,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,144 +306,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,194 +337,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -672,257 +361,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -936,89 +383,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1276,47 +682,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1340,32 +746,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1381,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1390,31 +795,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1422,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1430,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1438,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1447,31 +851,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1479,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1487,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1496,31 +899,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1528,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1536,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1545,22 +947,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="51.75" customWidth="1"/>
@@ -1569,7 +970,7 @@
     <col min="9" max="10" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1621,7 +1022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1641,7 +1042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1661,7 +1062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1681,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1701,7 +1102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1721,7 +1122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1741,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1764,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1787,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1810,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1833,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1856,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1884,7 +1285,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1912,7 +1313,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1940,7 +1341,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1968,7 +1369,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1996,7 +1397,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2024,7 +1425,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2043,264 +1444,262 @@
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1623254399</v>
+      <c r="I20" s="7">
+        <v>1941617584</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2572819200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="13.125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>15</v>
       </c>
-      <c r="D2" s="15">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13">
+      <c r="F2" s="16"/>
+      <c r="G2" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>16</v>
       </c>
-      <c r="D3" s="12">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13">
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>17</v>
       </c>
-      <c r="D4" s="12">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
         <v>1200</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13">
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="15">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>2555555555</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2312,37 +1711,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2356,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2370,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2384,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2398,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2412,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2426,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2440,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2455,258 +1853,256 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="8"/>
-    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="8"/>
+    <col min="1" max="1" width="10.75" style="9"/>
+    <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2720,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2734,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2748,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2762,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2776,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2790,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2804,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2818,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2833,108 +2229,106 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="8"/>
+    <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>30</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>40</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>30</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>25</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2942,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2950,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2958,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2966,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2975,31 +2369,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3007,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3015,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3024,7 +2417,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -1279,10 +1279,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J14" s="5">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J15" s="5">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J16" s="5">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J17" s="5">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J18" s="5">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -958,7 +958,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,10 +1279,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J14" s="5">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J15" s="5">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J16" s="5">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J17" s="5">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J18" s="5">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -958,7 +958,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,10 +1279,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J14" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J15" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J16" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J17" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -270,6 +270,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,6 +278,7 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,12 +286,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -297,17 +301,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -958,7 +965,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I14" sqref="I14:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J14" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J15" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J16" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J17" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="J18" s="5">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J14" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J15" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J16" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J17" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J18" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J14" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J15" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J16" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J17" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J18" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J14" s="5">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J15" s="5">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J16" s="5">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J17" s="5">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J18" s="5">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J14" s="5">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J15" s="5">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J16" s="5">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J17" s="5">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J18" s="5">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J14" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J15" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J16" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J17" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J18" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J14" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J15" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J16" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J17" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J18" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J14" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J15" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J16" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J17" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J18" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:J18"/>
     </sheetView>
   </sheetViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J14" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J15" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J16" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J17" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J18" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J14" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J15" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J16" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J17" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J18" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J14" s="5">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J15" s="5">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J16" s="5">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J17" s="5">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J18" s="5">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_am_yutu_random_5.xlsx
+++ b/config_Release/fish_am_yutu_random_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J14" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J15" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J16" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J17" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,10 +1398,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J18" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
